--- a/results/mp/logistic/corona/confidence/168/topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,42 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>sc</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
@@ -97,37 +106,55 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>good</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>confidence</t>
@@ -136,40 +163,46 @@
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>true</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>gt</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -181,31 +214,40 @@
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -563,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -682,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7294520547945206</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,31 +792,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="L5">
+        <v>53</v>
+      </c>
+      <c r="M5">
+        <v>53</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L5">
-        <v>110</v>
-      </c>
-      <c r="M5">
-        <v>110</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.8928571428571429</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5294117647058824</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.8302872062663186</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8103448275862069</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.8018867924528302</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,38 +1024,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L10">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L10">
-        <v>31</v>
-      </c>
-      <c r="M10">
-        <v>31</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1024,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,7 +1074,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4864864864864865</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -1050,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4285714285714285</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C12">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.7890625</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3529411764705883</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3294573643410852</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C14">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>346</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.7625</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2533333333333334</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>56</v>
+        <v>343</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2214765100671141</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1055555555555556</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>322</v>
+        <v>58</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.7307692307692307</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00546448087431694</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2366</v>
+        <v>118</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,89 +1474,137 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003103180760279286</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="C19">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>319</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <v>0.765625</v>
+      </c>
+      <c r="L19">
+        <v>98</v>
+      </c>
+      <c r="M19">
+        <v>98</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C20">
         <v>16</v>
       </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>0.36</v>
-      </c>
-      <c r="F19">
-        <v>0.64</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>5140</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L19">
-        <v>34</v>
-      </c>
-      <c r="M19">
-        <v>34</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>236</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20">
+        <v>0.75</v>
+      </c>
+      <c r="L20">
+        <v>36</v>
+      </c>
+      <c r="M20">
+        <v>36</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.005892255892255892</v>
+      </c>
+      <c r="C21">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.7</v>
-      </c>
-      <c r="L20">
-        <v>35</v>
-      </c>
-      <c r="M20">
-        <v>35</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0.18</v>
+      </c>
+      <c r="F21">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2362</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.696969696969697</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1526,21 +1616,45 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.003492433061699651</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>0.38</v>
+      </c>
+      <c r="F22">
+        <v>0.62</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>5136</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>0.6825396825396826</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1552,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>0.6296296296296297</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1578,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>0.6279069767441861</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1604,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>0.6088235294117647</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L25">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1630,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.6071428571428571</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1656,47 +1770,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
+        <v>42</v>
+      </c>
+      <c r="M27">
+        <v>42</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.5909090909090909</v>
+        <v>0.66</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1708,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.5815899581589958</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L29">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1734,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1760,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.5627118644067797</v>
+        <v>0.625</v>
       </c>
       <c r="L31">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1786,21 +1900,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>129</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.5538461538461539</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1812,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.5285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1838,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1864,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K35">
-        <v>0.4719101123595505</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1890,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K36">
-        <v>0.4642857142857143</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1916,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.3287671232876712</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1942,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K38">
-        <v>0.2549019607843137</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1968,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K39">
-        <v>0.2051282051282051</v>
+        <v>0.5322033898305085</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1994,33 +2108,319 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>0.002606255012028869</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L40">
+        <v>36</v>
+      </c>
+      <c r="M40">
+        <v>36</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L43">
+        <v>38</v>
+      </c>
+      <c r="M43">
+        <v>38</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="L44">
+        <v>16</v>
+      </c>
+      <c r="M44">
+        <v>16</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
+        <v>15</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L46">
+        <v>22</v>
+      </c>
+      <c r="M46">
+        <v>22</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="L48">
         <v>13</v>
       </c>
-      <c r="M40">
-        <v>21</v>
-      </c>
-      <c r="N40">
-        <v>0.62</v>
-      </c>
-      <c r="O40">
-        <v>0.38</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>4975</v>
+      <c r="M48">
+        <v>13</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49">
+        <v>0.01252086811352254</v>
+      </c>
+      <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>17</v>
+      </c>
+      <c r="N49">
+        <v>0.88</v>
+      </c>
+      <c r="O49">
+        <v>0.12</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50">
+        <v>0.006749156355455568</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
+      </c>
+      <c r="M50">
+        <v>24</v>
+      </c>
+      <c r="N50">
+        <v>0.75</v>
+      </c>
+      <c r="O50">
+        <v>0.25</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51">
+        <v>0.003475440222428174</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>27</v>
+      </c>
+      <c r="N51">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O51">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4301</v>
       </c>
     </row>
   </sheetData>
